--- a/eKYC/api-ekyc/Counter_service.xlsx
+++ b/eKYC/api-ekyc/Counter_service.xlsx
@@ -515,8 +515,8 @@
   </sheetPr>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>20220618-01</t>
+          <t>20220621-06</t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>EQ2022061800012</t>
+          <t>EQ2022062100032</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
@@ -666,7 +666,7 @@
           <t>Success</t>
         </is>
       </c>
-      <c r="L3" s="8" t="n"/>
+      <c r="L3" s="8" t="inlineStr"/>
       <c r="M3" s="8" t="inlineStr">
         <is>
           <t>S0001</t>
@@ -684,7 +684,7 @@
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022061800012"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022062100032"}}</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
           <t>Success</t>
         </is>
       </c>
-      <c r="L9" s="8" t="inlineStr"/>
+      <c r="L9" s="8" t="n"/>
       <c r="M9" s="8" t="n"/>
       <c r="N9" s="8" t="n"/>
       <c r="O9" s="8" t="n"/>
@@ -988,7 +988,7 @@
           <t>QR Used</t>
         </is>
       </c>
-      <c r="L10" s="8" t="inlineStr"/>
+      <c r="L10" s="8" t="n"/>
       <c r="M10" s="8" t="inlineStr">
         <is>
           <t>E0016</t>

--- a/eKYC/api-ekyc/Counter_service.xlsx
+++ b/eKYC/api-ekyc/Counter_service.xlsx
@@ -515,8 +515,8 @@
   </sheetPr>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:P3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>20220621-06</t>
+          <t>20220621-10</t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>EQ2022062100032</t>
+          <t>EQ2022062100041</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022062100032"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022062100041"}}</t>
         </is>
       </c>
     </row>

--- a/eKYC/api-ekyc/Counter_service.xlsx
+++ b/eKYC/api-ekyc/Counter_service.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>20220621-10</t>
+          <t>20220630-01</t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>EQ2022062100041</t>
+          <t>EQ2022063000050</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022062100041"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022063000050"}}</t>
         </is>
       </c>
     </row>

--- a/eKYC/api-ekyc/Counter_service.xlsx
+++ b/eKYC/api-ekyc/Counter_service.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="39160" yWindow="460" windowWidth="28040" windowHeight="16580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Signup_CS" sheetId="1" state="visible" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>20220630-01</t>
+          <t>20220702-03</t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>EQ2022063000050</t>
+          <t>EQ2022070200010</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022063000050"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022070200010"}}</t>
         </is>
       </c>
     </row>

--- a/eKYC/api-ekyc/Counter_service.xlsx
+++ b/eKYC/api-ekyc/Counter_service.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>20220702-03</t>
+          <t>20220706-01</t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
@@ -653,38 +653,38 @@
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>EQ2022070200010</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="K3" s="8" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>QR match fail</t>
         </is>
       </c>
       <c r="L3" s="8" t="inlineStr"/>
       <c r="M3" s="8" t="inlineStr">
         <is>
-          <t>S0001</t>
+          <t>E0012</t>
         </is>
       </c>
       <c r="N3" s="8" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>The information of ID card and QR code is not matched.</t>
         </is>
       </c>
       <c r="O3" s="8" t="inlineStr">
         <is>
-          <t>ดำเนินการสำเร็จ</t>
+          <t>ข้อมูลบัตรประจำตัวประชาชนและ QR Code ไม่ตรงกัน</t>
         </is>
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022070200010"}}</t>
+          <t>{"status":{"code":"2018","message":"QR match fail","remark":"","user_code":"E0012","user_message_en":"The information of ID card and QR code is not matched.","user_message_th":"ข้อมูลบัตรประจำตัวประชาชนและ QR Code ไม่ตรงกัน"},"data":null}</t>
         </is>
       </c>
     </row>

--- a/eKYC/api-ekyc/Counter_service.xlsx
+++ b/eKYC/api-ekyc/Counter_service.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>20220706-01</t>
+          <t>20220725-02</t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
@@ -653,38 +653,38 @@
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>EQ2022072500056</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" s="8" t="inlineStr">
         <is>
-          <t>QR match fail</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="L3" s="8" t="inlineStr"/>
       <c r="M3" s="8" t="inlineStr">
         <is>
-          <t>E0012</t>
+          <t>S0001</t>
         </is>
       </c>
       <c r="N3" s="8" t="inlineStr">
         <is>
-          <t>The information of ID card and QR code is not matched.</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="O3" s="8" t="inlineStr">
         <is>
-          <t>ข้อมูลบัตรประจำตัวประชาชนและ QR Code ไม่ตรงกัน</t>
+          <t>ดำเนินการสำเร็จ</t>
         </is>
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>{"status":{"code":"2018","message":"QR match fail","remark":"","user_code":"E0012","user_message_en":"The information of ID card and QR code is not matched.","user_message_th":"ข้อมูลบัตรประจำตัวประชาชนและ QR Code ไม่ตรงกัน"},"data":null}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022072500056"}}</t>
         </is>
       </c>
     </row>
